--- a/www/Clinic_visit_cost_OEXCD.xlsx
+++ b/www/Clinic_visit_cost_OEXCD.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slakshminarayanan\Desktop\MIDAS_data\Reckitt_midas_med_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slakshminarayanan\Desktop\Reckitt_shiny_app\code\V1\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F577D-87F7-459B-A428-52FCDCF16C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F332BD3-4DAC-45EF-92A6-1DAEFAD97698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>clinic_visit_cost</t>
   </si>
@@ -57,13 +58,115 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>nonclinic_visit_cost</t>
+  </si>
+  <si>
+    <t>Massage Therapies (€)</t>
+  </si>
+  <si>
+    <t>Acupuncture (€)</t>
+  </si>
+  <si>
+    <t>Physical Therapy (€)</t>
+  </si>
+  <si>
+    <t>Weighted Average (€)</t>
+  </si>
+  <si>
+    <t>50-100</t>
+  </si>
+  <si>
+    <t>35-70</t>
+  </si>
+  <si>
+    <t>30-85</t>
+  </si>
+  <si>
+    <t>60-90</t>
+  </si>
+  <si>
+    <t>70-80</t>
+  </si>
+  <si>
+    <t>42-62</t>
+  </si>
+  <si>
+    <t>14-40</t>
+  </si>
+  <si>
+    <t>13-48</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>37-42</t>
+  </si>
+  <si>
+    <t>50-80</t>
+  </si>
+  <si>
+    <t>50-150</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <r>
+      <t>LiveWell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E45C9"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>Thervo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF3E45C9"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>AIAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF424242"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +174,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF424242"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF424242"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3E45C9"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,8 +205,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -94,13 +226,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,65 +580,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>194.19900000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f>VLOOKUP(A2,data!A:E,5,0)</f>
+        <v>69.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>317.01100000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>VLOOKUP(A3,data!A:E,5,0)</f>
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>516.57399999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f>VLOOKUP(A4,data!A:E,5,0)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>139.57499999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f>VLOOKUP(A5,data!A:E,5,0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <f>AVERAGE(B2:B4)</f>
         <v>342.59466666666668</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,data!A:E,5,0)</f>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC0D935-34C2-47E5-90ED-DFFD6D434618}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="49.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="35" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5">
+        <v>49.83</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>69.17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>80</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
